--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +52,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +349,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -350,22 +350,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -350,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -377,8 +377,26 @@
       <c r="K1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -397,8 +415,26 @@
       <c r="K2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -417,8 +453,26 @@
       <c r="K3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -437,8 +491,26 @@
       <c r="K4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -457,8 +529,26 @@
       <c r="K5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -477,8 +567,26 @@
       <c r="K6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -497,8 +605,26 @@
       <c r="K7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -517,8 +643,26 @@
       <c r="K8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -535,6 +679,664 @@
         <v>9</v>
       </c>
       <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>8</v>
+      </c>
+      <c r="V22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>9</v>
+      </c>
+      <c r="T23">
+        <v>9</v>
+      </c>
+      <c r="V23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="M29">
         <v>9</v>
       </c>
     </row>
